--- a/config_Release/fish_3d_yutu_random_boss_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_boss_3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,14 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>34,35,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,36,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,11 +302,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>40,41,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>38,39,</t>
+    <t>196,197,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>198,199,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,201,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1014,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1056,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>200</v>
@@ -1076,7 +1072,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>200</v>
@@ -1096,7 +1092,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <v>300</v>
@@ -1116,7 +1112,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>600</v>
@@ -1125,10 +1121,10 @@
         <v>800</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1136,7 +1132,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -1145,10 +1141,10 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1156,7 +1152,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7">
         <v>100</v>
@@ -1165,30 +1161,10 @@
         <v>200</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8">
-        <v>300</v>
-      </c>
-      <c r="D8">
-        <v>500</v>
-      </c>
-      <c r="E8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1641,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>49</v>
@@ -1658,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>53</v>
@@ -1675,7 +1651,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>53</v>
@@ -1692,7 +1668,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>54</v>
@@ -1709,7 +1685,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>55</v>
